--- a/취업좀/서류/취업.xlsx
+++ b/취업좀/서류/취업.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG gram\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659313B3-C7B8-4B3A-9BBD-F72A25C06FE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="16155" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="16155" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="회사 , 기간" sheetId="1" r:id="rId1"/>
@@ -651,7 +645,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,12 +670,24 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -698,11 +704,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,26 +810,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -850,23 +845,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1042,12 +1020,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1147,50 +1125,51 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6">
+      <c r="B6" s="2">
         <v>20180917</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7">
+      <c r="B7" s="2">
         <v>20180917</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8">
+      <c r="B8" s="2">
         <v>20180917</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1198,47 +1177,50 @@
       <c r="A9">
         <v>20180828</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>20180916</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11">
+      <c r="B11" s="2">
         <v>20180918</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1291,19 +1273,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15">
+      <c r="B15" s="2">
         <v>20180920</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1336,19 +1318,19 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18">
+      <c r="B18" s="2">
         <v>20180927</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1360,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1641,7 +1623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1788,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A585E738-B3AC-4F67-AAD9-DD2B38224374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1878,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39013C89-3943-459E-85D0-2B8F5E692203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/취업좀/서류/취업.xlsx
+++ b/취업좀/서류/취업.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG gram\Desktop\Dev_study\취업좀\서류\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B5AF65-E003-4483-9A77-815F77821976}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="16155" windowHeight="8070"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="16155" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회사 , 기간" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="159">
   <si>
     <t xml:space="preserve">시작일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,10 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한화 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,13 +641,29 @@
   </si>
   <si>
     <t>C , Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화시스템/ICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화 시스템/시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,7 +795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,9 +828,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -845,6 +880,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1020,12 +1072,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1069,6 +1121,9 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1086,6 +1141,9 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1103,6 +1161,9 @@
       <c r="E4" t="s">
         <v>117</v>
       </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1154,6 +1215,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1204,7 +1268,7 @@
         <v>120</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1235,7 +1299,7 @@
         <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1252,7 +1316,7 @@
         <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1269,7 +1333,7 @@
         <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1286,7 +1350,7 @@
         <v>143</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1305,16 +1369,19 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>20180930</v>
+        <v>20180928</v>
       </c>
       <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
         <v>147</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>148</v>
       </c>
-      <c r="E17" t="s">
-        <v>149</v>
+      <c r="F17" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -1322,16 +1389,24 @@
         <v>20180927</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>20180930</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1623,7 +1698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1770,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1860,12 +1935,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/취업좀/서류/취업.xlsx
+++ b/취업좀/서류/취업.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG gram\Desktop\Dev_study\취업좀\서류\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B5AF65-E003-4483-9A77-815F77821976}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="16155" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="16155" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="회사 , 기간" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="170">
   <si>
     <t xml:space="preserve">시작일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,14 +651,58 @@
   </si>
   <si>
     <t>불합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부 하이텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">생산 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국스마트카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘숭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전자개발자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,8 +725,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,6 +753,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -722,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +791,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,7 +862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,26 +895,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,23 +930,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1072,12 +1105,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1146,43 +1179,47 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>20180831</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>20180930</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>20180829</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>20180919</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>146</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1201,6 +1238,9 @@
       <c r="F6" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
@@ -1235,6 +1275,9 @@
       </c>
       <c r="F8" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1289,52 +1332,59 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5">
         <v>20180919</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5">
         <v>20180919</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5">
         <v>20180919</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -1354,37 +1404,42 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
         <v>20180921</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
         <v>20180928</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>20180927</v>
       </c>
@@ -1401,12 +1456,82 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
         <v>20180930</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>156</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>20181010</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <v>20181011</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>20181010</v>
+      </c>
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>20180928</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>20180910</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1698,7 +1823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1845,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1935,7 +2060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/취업좀/서류/취업.xlsx
+++ b/취업좀/서류/취업.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="176">
   <si>
     <t xml:space="preserve">시작일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,191 +510,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>13-16-667648-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일진 디스플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSP 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LG H&amp;A HW </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C C++ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데 이비카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희성그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기전자 소재개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아디다스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상품도입 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라관련회로 및 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">팅크웨어 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이나비 단말 시스템 sw 개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C linux 카메라어플개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화 디펜스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">연구 설계 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임베디드 SW HW경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화 방산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석사우대라…….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C JAVA R.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">매그나칩반도체 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트엔지니어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C , Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화시스템/ICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화 시스템/시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부 하이텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">생산 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국스마트카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘숭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전자개발자 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>18202021031K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13-16-667648-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일진 디스플레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSP 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LG H&amp;A HW </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">C C++ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데 이비카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>programming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희성그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기전자 소재개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아디다스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상품도입 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라관련회로 및 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">팅크웨어 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이나비 단말 시스템 sw 개발자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C linux 카메라어플개발자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화 디펜스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">연구 설계 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임베디드 SW HW경험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화 방산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>석사우대라…….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C JAVA R.</t>
+    <t xml:space="preserve">코츠 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전자개발자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>불합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">매그나칩반도체 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트엔지니어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C , Excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화시스템/ICT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화 시스템/시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dy 그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동부 하이텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">생산 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국스마트카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샘숭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전자개발자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,7 +785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +830,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,44 +1172,46 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>20180903</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>20180928</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>155</v>
-      </c>
+      <c r="F2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>20180903</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>20180928</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>155</v>
-      </c>
+      <c r="F3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -1195,7 +1230,7 @@
         <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -1216,10 +1251,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1239,7 +1274,7 @@
         <v>120</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1247,17 +1282,17 @@
         <v>20180917</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,19 +1300,19 @@
         <v>20180917</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1311,7 +1346,7 @@
         <v>120</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1319,13 +1354,13 @@
         <v>20180918</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>120</v>
@@ -1337,14 +1372,14 @@
         <v>20180919</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -1354,16 +1389,16 @@
         <v>20180919</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -1373,16 +1408,16 @@
         <v>20180919</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -1391,16 +1426,16 @@
         <v>20180920</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1409,14 +1444,14 @@
         <v>20180921</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -1426,16 +1461,16 @@
         <v>20180928</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1444,16 +1479,16 @@
         <v>20180927</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1462,46 +1497,58 @@
         <v>20180930</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>20181010</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20">
+      <c r="D20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>20181011</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
         <v>20181010</v>
       </c>
-      <c r="C20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="6">
-        <v>20181011</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>20181010</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D22" t="s">
-        <v>165</v>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1509,10 +1556,10 @@
         <v>20180928</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
@@ -1524,14 +1571,30 @@
         <v>20180910</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +2038,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2032,7 +2095,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2049,7 +2112,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2128,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2107,6 +2170,9 @@
       <c r="D2" t="s">
         <v>54</v>
       </c>
+      <c r="E2">
+        <v>636172</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">

--- a/취업좀/서류/취업.xlsx
+++ b/취업좀/서류/취업.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG gram\Desktop\Dev_study\취업좀\서류\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889F21E-FC2C-42AF-9278-530144BCD70E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="16155" windowHeight="8070"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="16155" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회사 , 기간" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="179">
   <si>
     <t xml:space="preserve">시작일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -719,13 +725,25 @@
   </si>
   <si>
     <t>불합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이닉스 인턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,9 +946,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -963,6 +998,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1138,12 +1190,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1580,6 +1632,9 @@
       <c r="F24" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="G24" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
@@ -1595,6 +1650,17 @@
       </c>
       <c r="G25" s="6" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1886,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2033,7 +2099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2123,7 +2189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
